--- a/jeepay-manager/src/main/resources/templates/TEMPLATE_TENANT-1.xlsx
+++ b/jeepay-manager/src/main/resources/templates/TEMPLATE_TENANT-1.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet-total" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet-detail" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet-detail" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -39,7 +39,6 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-chengzhengwen:
 jx:area(lastCell=”E12”)
 jx:each(items=”pages_one”,var=”page”,lastCell=”E10” multisheet=”sheetNames_1”)
 </t>
@@ -77,7 +76,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>airven:</t>
+          <t xml:space="preserve">airven:
+</t>
         </r>
         <r>
           <rPr>
@@ -85,10 +85,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-jx:each(items=”page.onlyOne.cmpAccountDetailMap.keySet()” var="key" varStatus="count" lastCell=”B8”)
-jx:params(formulaStrategy="BY_COLUMN")
-</t>
+          <t>jx:each(items=”page.onlyOne.cmpAccountDetailMap.keySet()” var="key" lastCell=”D8”)
+jx:params(formulaStrategy="BY_COLUMN")</t>
         </r>
       </text>
     </comment>
@@ -135,8 +133,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">chengzhengwen:
-</t>
+          <t>chengzhengwen:</t>
         </r>
         <r>
           <rPr>
@@ -144,9 +141,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell=”D12”)
-jx:each(items=”page.onlyOne.accountForDepartmentRqs” var=”myObj” lastCell=”B8”)
-</t>
+          <t xml:space="preserve">
+jx:each(items=”page.onlyOne.accountForDepartmentRqs” var=”myObj” lastCell=”D13”)</t>
         </r>
       </text>
     </comment>
@@ -190,7 +186,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items=”myObj.orgAccountDetailMap.keySet()” var=”key” lastCell=”C10”)
+jx:each(items=”myObj.orgAccountDetailMap.keySet()” var=”key” lastCell=”D10”)
 jx:params(formulaStrategy="BY_COLUMN")</t>
         </r>
       </text>
@@ -260,7 +256,7 @@
     <t>账单日期</t>
   </si>
   <si>
-    <t>${page.onlyOne.AccountTime}</t>
+    <t>${utils:dateFmt(page.onlyOne.AccountTime,"yyyy-MM-dd HH:mm:ss")}</t>
   </si>
   <si>
     <t>货币形式</t>
@@ -275,7 +271,7 @@
     <t>账单合计</t>
   </si>
   <si>
-    <t>(大写)肆仟捌佰伍拾叁元陆角壹分</t>
+    <t>(大写)${utils:toChinese(page.onlyOne.totalAccountForTenant.toString())}</t>
   </si>
   <si>
     <t>(小写)${page.onlyOne.totalAccountForTenant}</t>
@@ -1073,7 +1069,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1117,6 +1113,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1458,15 +1457,15 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="43.75" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
@@ -1475,9 +1474,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
@@ -1524,12 +1523,12 @@
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:4">
       <c r="A7" s="6" t="s">
@@ -1542,14 +1541,14 @@
       <c r="D7" s="12"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:4">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1572,18 +1571,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="45.625" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:4">
@@ -1684,7 +1683,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="15" customHeight="1" spans="1:4">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:4">
+    <row r="12" ht="15" customHeight="1" spans="1:4">
       <c r="A12" s="13" t="s">
         <v>24</v>
       </c>
@@ -1708,8 +1707,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -1724,9 +1729,9 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/jeepay-manager/src/main/resources/templates/TEMPLATE_TENANT-1.xlsx
+++ b/jeepay-manager/src/main/resources/templates/TEMPLATE_TENANT-1.xlsx
@@ -164,7 +164,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:if(condition="myObj.orgAccountDetailMap.size()&gt;0" lastCell="C9" areas=["A9:C9"])</t>
+jx:if(condition="myObj.orgAccountDetailMap.size()&gt;0" lastCell="D9" areas=["A9:D9"])</t>
         </r>
       </text>
     </comment>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>玖旺物业入驻企业${month}月度汇总账单</t>
   </si>
@@ -316,7 +316,10 @@
     <t>备注</t>
   </si>
   <si>
-    <t>${typeKey}</t>
+    <t>${utils:splitString(typeKey)[0]}</t>
+  </si>
+  <si>
+    <t>${utils:splitString(typeKey)[1]}</t>
   </si>
   <si>
     <t>${myObj.orgAccountTypeDetailMap.get(typeKey)}</t>
@@ -1574,7 +1577,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1701,10 +1704,10 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
